--- a/data_samples/book_record_example.xlsx
+++ b/data_samples/book_record_example.xlsx
@@ -1,20 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28014"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\untun\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6E9E8B-D5FE-4B4E-A47D-E4296A55FC5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>date</t>
   </si>
@@ -83,16 +101,19 @@
   </si>
   <si>
     <t>TRX-007</t>
+  </si>
+  <si>
+    <t>amount</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,7 +138,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -140,29 +161,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -200,7 +243,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -234,6 +277,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -268,9 +312,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -443,14 +488,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -466,8 +513,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>45658</v>
       </c>
@@ -483,8 +533,12 @@
       <c r="E2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2">
+        <f>C2-D2</f>
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>45667</v>
       </c>
@@ -500,8 +554,12 @@
       <c r="E3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <f t="shared" ref="F3:F10" si="0">C3-D3</f>
+        <v>-12500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>45659</v>
       </c>
@@ -517,8 +575,12 @@
       <c r="E4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>45659</v>
       </c>
@@ -534,8 +596,12 @@
       <c r="E5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>45660</v>
       </c>
@@ -551,8 +617,12 @@
       <c r="E6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>1750000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>45661</v>
       </c>
@@ -568,8 +638,12 @@
       <c r="E7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>45663</v>
       </c>
@@ -585,8 +659,12 @@
       <c r="E8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>-1195000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>45665</v>
       </c>
@@ -602,8 +680,12 @@
       <c r="E9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>5200000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>45666</v>
       </c>
@@ -618,6 +700,10 @@
       </c>
       <c r="E10" t="s">
         <v>22</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>1800000</v>
       </c>
     </row>
   </sheetData>
